--- a/Lab10/Lab10 Wed.xlsx
+++ b/Lab10/Lab10 Wed.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Student</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -142,6 +142,57 @@
     <t>Silence</t>
   </si>
   <si>
+    <t>Lower Limit</t>
+  </si>
+  <si>
+    <t>Upper Limit</t>
+  </si>
+  <si>
+    <t>mean(diff)</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>t-value</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>H0:mean(silence)-mean(music) =0
+H1:mean(silence)-mean(music) not equal 0</t>
+  </si>
+  <si>
+    <t>Difference(Silence - Music)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Paired test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Method 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Stand Error( st.d of the mean)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Table 10.6:  </t>
     </r>
@@ -153,43 +204,70 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>90% confidence interval for the difference in population means</t>
+      <t>90% confidence interval for the difference in population</t>
     </r>
-  </si>
-  <si>
-    <t>Lower Limit</t>
-  </si>
-  <si>
-    <t>Upper Limit</t>
-  </si>
-  <si>
-    <t>mean(diff)</t>
-  </si>
-  <si>
-    <t>Table 10.7:  Hypothesis test results</t>
-  </si>
-  <si>
-    <t>Decision</t>
-  </si>
-  <si>
-    <t>p-value</t>
-  </si>
-  <si>
-    <t>t-value</t>
-  </si>
-  <si>
-    <t>Hypothesis</t>
-  </si>
-  <si>
-    <t>H0:mean(silence)-mean(music) =0
-H1:mean(silence)-mean(music) not equal 0</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> means</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 10.7:  Hypothesis test results </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( Equal sample sizes, equal variance)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 10.7:  Hypothesis test results </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( Equal or unequal sample sizes, unequal variances)</t>
+    </r>
+  </si>
+  <si>
+    <t>90% confi interval</t>
+  </si>
+  <si>
+    <t>do not reject ,and do not have enough evidence to say that the mean is different for silence and music</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> too hard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +295,27 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,6 +381,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,10 +402,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -582,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,40 +706,41 @@
     <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="2"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="I2" s="10" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="I2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
@@ -635,20 +750,23 @@
       <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="8" t="str">
         <f ca="1">IF(RAND()&gt;0.5,"First","Second")</f>
+        <v>First</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="str">
+        <f ca="1">IF(B4="First","Second","First")</f>
         <v>Second</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="str">
-        <f ca="1">IF(B4="First","Second","First")</f>
-        <v>First</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
@@ -656,9 +774,13 @@
         <f>AVERAGE(E12:F31)</f>
         <v>11.4</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="16">
         <f>_xlfn.STDEV.S(E12:F31)</f>
         <v>3.5894582496967145</v>
+      </c>
+      <c r="L4" s="17">
+        <f>K4/SQRT($B$31)</f>
+        <v>0.8026272648719267</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -669,120 +791,147 @@
         <f>AVERAGE(C12:D31)</f>
         <v>12.4</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="16">
         <f>_xlfn.STDEV.S(C12:D31)</f>
         <v>3.8168601038853374</v>
       </c>
+      <c r="L5" s="17">
+        <f t="shared" ref="L5:L6" si="0">K5/SQRT($B$31)</f>
+        <v>0.8534758652894523</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1">
+        <f>AVERAGE(G12:G31)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="16">
+        <f>_xlfn.STDEV.S(G12:G31)</f>
+        <v>5.3014397250081737</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="0"/>
+        <v>1.1854379603736067</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="I10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="I10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>8</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
         <v>15</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4">
         <f>C12-E12</f>
         <v>-7</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J12" s="15">
+        <f>J6-_xlfn.T.INV(0.95,B31-1)*L6</f>
+        <v>-1.0497796733049727</v>
+      </c>
+      <c r="K12" s="15">
+        <f>J6+_xlfn.T.INV(0.95,B31-1)*L6</f>
+        <v>3.0497796733049727</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>5</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
         <v>12</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="4">
-        <f t="shared" ref="G13:G31" si="0">C13-E13</f>
+        <f t="shared" ref="G13:G31" si="1">C13-E13</f>
         <v>-7</v>
       </c>
     </row>
@@ -790,16 +939,16 @@
       <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>8</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
         <v>14</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
     </row>
@@ -807,128 +956,147 @@
       <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>18</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
         <v>15</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="I15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>10</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
         <v>8</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>6</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>17</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
         <v>8</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="8">
+        <f>(J5-J4)/SQRT(AVERAGE(K4^2,K5^2))</f>
+        <v>0.26991250570545311</v>
+      </c>
+      <c r="K17" s="8">
+        <f>1-(_xlfn.T.DIST(J17,2*B31-2,TRUE)-0.5)</f>
+        <v>0.89434400316209839</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>7</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>16</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
         <v>21</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>8</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>9</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8">
         <v>13</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="18">
+        <f>-_xlfn.T.INV(0.95,B31-1)</f>
+        <v>-1.7291328115213698</v>
+      </c>
+      <c r="K19" s="18">
+        <f>_xlfn.T.INV(0.95,B31-1)</f>
+        <v>1.7291328115213698</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>9</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>14</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
         <v>6</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -936,84 +1104,113 @@
       <c r="B21" s="3">
         <v>10</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>15</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
         <v>10</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="I21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>11</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>14</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
         <v>8</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>12</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>16</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8">
         <v>11</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="I23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>13</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>15</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
         <v>10</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>14</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>11</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8">
         <v>9</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1021,16 +1218,16 @@
       <c r="B26" s="3">
         <v>15</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>12</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
         <v>16</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
     </row>
@@ -1038,16 +1235,16 @@
       <c r="B27" s="3">
         <v>16</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>18</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8">
         <v>12</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1055,16 +1252,16 @@
       <c r="B28" s="3">
         <v>17</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>7</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8">
         <v>11</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
     </row>
@@ -1072,16 +1269,16 @@
       <c r="B29" s="3">
         <v>18</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>12</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8">
         <v>7</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1089,16 +1286,16 @@
       <c r="B30" s="3">
         <v>19</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>13</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8">
         <v>10</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1106,16 +1303,16 @@
       <c r="B31" s="3">
         <v>20</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>10</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8">
         <v>12</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
     </row>
@@ -1123,84 +1320,62 @@
       <c r="B32" s="3">
         <v>21</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>22</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>23</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>24</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
+  <mergeCells count="74">
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
@@ -1217,18 +1392,46 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
